--- a/salary.data.xlsx
+++ b/salary.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyoung20/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyoung20/Dropbox (ASU)/GitHub_repos/CCJfacultysalary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9669DA20-7CD6-7B4E-A2BB-EA95E5F98CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7EBE13-47C7-BD44-A259-9AD8B0039C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{E77161E0-0D78-EF41-9966-6AFC88018FAF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33420" windowHeight="19300" xr2:uid="{E77161E0-0D78-EF41-9966-6AFC88018FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>rate</t>
-  </si>
-  <si>
-    <t>wage</t>
   </si>
   <si>
     <t>NA</t>
@@ -586,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512D8FD4-FC4B-524B-BB2A-729BD4C8BC53}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="192" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,7 +594,7 @@
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
@@ -622,16 +619,13 @@
       <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -649,18 +643,15 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>90000</v>
-      </c>
-      <c r="I2">
-        <v>965000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -678,18 +669,15 @@
         <v>15</v>
       </c>
       <c r="H3">
-        <v>82000</v>
-      </c>
-      <c r="I3">
-        <v>91111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -707,18 +695,15 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>97250</v>
-      </c>
-      <c r="I4">
-        <v>111958</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -736,18 +721,15 @@
         <v>15</v>
       </c>
       <c r="H5">
-        <v>143000</v>
-      </c>
-      <c r="I5">
-        <v>188030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>144500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -764,19 +746,16 @@
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -794,18 +773,15 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -823,18 +799,15 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>143713</v>
-      </c>
-      <c r="I8">
-        <v>185231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
@@ -852,18 +825,15 @@
         <v>14</v>
       </c>
       <c r="H9">
-        <v>113335</v>
-      </c>
-      <c r="I9">
-        <v>142150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>118335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -881,18 +851,15 @@
         <v>15</v>
       </c>
       <c r="H10">
-        <v>163000</v>
-      </c>
-      <c r="I10">
-        <v>251000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -910,18 +877,15 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>162000</v>
-      </c>
-      <c r="I11">
-        <v>201305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -938,19 +902,16 @@
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -968,18 +929,15 @@
         <v>14</v>
       </c>
       <c r="H13">
-        <v>82000</v>
-      </c>
-      <c r="I13">
-        <v>86556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
@@ -997,18 +955,15 @@
         <v>15</v>
       </c>
       <c r="H14">
-        <v>112000</v>
-      </c>
-      <c r="I14">
-        <v>145514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
@@ -1026,18 +981,15 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -1055,18 +1007,15 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>96500</v>
-      </c>
-      <c r="I16">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -1084,18 +1033,15 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>138100</v>
-      </c>
-      <c r="I17">
-        <v>164264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>142300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -1113,18 +1059,15 @@
         <v>14</v>
       </c>
       <c r="H18">
-        <v>83000</v>
-      </c>
-      <c r="I18">
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1142,18 +1085,15 @@
         <v>14</v>
       </c>
       <c r="H19">
-        <v>196000</v>
-      </c>
-      <c r="I19">
-        <v>235772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>226000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -1171,18 +1111,15 @@
         <v>15</v>
       </c>
       <c r="H20">
-        <v>101460</v>
-      </c>
-      <c r="I20">
-        <v>118370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
@@ -1200,18 +1137,15 @@
         <v>15</v>
       </c>
       <c r="H21">
-        <v>87000</v>
-      </c>
-      <c r="I21">
-        <v>113333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1229,18 +1163,15 @@
         <v>15</v>
       </c>
       <c r="H22">
-        <v>132000</v>
-      </c>
-      <c r="I22">
-        <v>140500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
@@ -1258,18 +1189,15 @@
         <v>15</v>
       </c>
       <c r="H23">
-        <v>82200</v>
-      </c>
-      <c r="I23">
-        <v>91133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C24" t="s">
         <v>55</v>
@@ -1287,18 +1215,15 @@
         <v>14</v>
       </c>
       <c r="H24">
-        <v>99000</v>
-      </c>
-      <c r="I24">
-        <v>126022</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C25" t="s">
         <v>57</v>
@@ -1316,18 +1241,15 @@
         <v>14</v>
       </c>
       <c r="H25">
-        <v>95148</v>
-      </c>
-      <c r="I25">
-        <v>94148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>100148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
@@ -1345,18 +1267,15 @@
         <v>15</v>
       </c>
       <c r="H26">
-        <v>154256</v>
-      </c>
-      <c r="I26">
-        <v>231175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173538</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -1374,18 +1293,15 @@
         <v>15</v>
       </c>
       <c r="H27">
-        <v>104132</v>
-      </c>
-      <c r="I27">
-        <v>147176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>106132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
@@ -1403,18 +1319,15 @@
         <v>15</v>
       </c>
       <c r="H28">
-        <v>82200</v>
-      </c>
-      <c r="I28">
-        <v>91133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C29" t="s">
         <v>64</v>
@@ -1432,18 +1345,15 @@
         <v>15</v>
       </c>
       <c r="H29">
-        <v>95917</v>
-      </c>
-      <c r="I29">
         <v>100917</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -1461,18 +1371,15 @@
         <v>14</v>
       </c>
       <c r="H30">
-        <v>76000</v>
-      </c>
-      <c r="I30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -1489,19 +1396,16 @@
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
@@ -1519,18 +1423,15 @@
         <v>14</v>
       </c>
       <c r="H32">
-        <v>90250</v>
-      </c>
-      <c r="I32" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>97250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
       <c r="B33">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -1548,18 +1449,15 @@
         <v>15</v>
       </c>
       <c r="H33">
-        <v>137500</v>
-      </c>
-      <c r="I33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
       <c r="B34">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1577,18 +1475,15 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -1606,18 +1501,15 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
-      </c>
-      <c r="I35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7</v>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -1635,18 +1527,15 @@
         <v>15</v>
       </c>
       <c r="H36">
-        <v>141713</v>
-      </c>
-      <c r="I36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>143713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
       <c r="B37">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C37" t="s">
         <v>22</v>
@@ -1664,18 +1553,15 @@
         <v>14</v>
       </c>
       <c r="H37">
-        <v>106335</v>
-      </c>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>113335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
       <c r="B38">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
@@ -1693,18 +1579,15 @@
         <v>15</v>
       </c>
       <c r="H38">
-        <v>161000</v>
-      </c>
-      <c r="I38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
       <c r="B39">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -1722,18 +1605,15 @@
         <v>15</v>
       </c>
       <c r="H39">
-        <v>160000</v>
-      </c>
-      <c r="I39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11</v>
       </c>
       <c r="B40">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -1751,18 +1631,15 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>12</v>
       </c>
       <c r="B41">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1779,19 +1656,16 @@
       <c r="G41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>13</v>
       </c>
       <c r="B42">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C42" t="s">
         <v>32</v>
@@ -1809,18 +1683,15 @@
         <v>15</v>
       </c>
       <c r="H42">
-        <v>122222</v>
-      </c>
-      <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>14</v>
       </c>
       <c r="B43">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
@@ -1838,18 +1709,15 @@
         <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
@@ -1867,18 +1735,15 @@
         <v>14</v>
       </c>
       <c r="H44">
-        <v>92500</v>
-      </c>
-      <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>96500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>16</v>
       </c>
       <c r="B45">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
@@ -1896,18 +1761,15 @@
         <v>15</v>
       </c>
       <c r="H45">
-        <v>129100</v>
-      </c>
-      <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>138100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>17</v>
       </c>
       <c r="B46">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
@@ -1925,18 +1787,15 @@
         <v>14</v>
       </c>
       <c r="H46">
-        <v>76000</v>
-      </c>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>18</v>
       </c>
       <c r="B47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C47" t="s">
         <v>42</v>
@@ -1954,18 +1813,15 @@
         <v>14</v>
       </c>
       <c r="H47">
-        <v>190000</v>
-      </c>
-      <c r="I47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>19</v>
       </c>
       <c r="B48">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
@@ -1985,16 +1841,13 @@
       <c r="H48">
         <v>101460</v>
       </c>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20</v>
       </c>
       <c r="B49">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
@@ -2012,18 +1865,15 @@
         <v>15</v>
       </c>
       <c r="H49">
-        <v>83000</v>
-      </c>
-      <c r="I49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>21</v>
       </c>
       <c r="B50">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C50" t="s">
         <v>48</v>
@@ -2041,18 +1891,15 @@
         <v>15</v>
       </c>
       <c r="H50">
-        <v>125000</v>
-      </c>
-      <c r="I50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>22</v>
       </c>
       <c r="B51">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="s">
         <v>53</v>
@@ -2070,18 +1917,15 @@
         <v>15</v>
       </c>
       <c r="H51">
-        <v>76000</v>
-      </c>
-      <c r="I51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>23</v>
       </c>
       <c r="B52">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
@@ -2099,18 +1943,15 @@
         <v>14</v>
       </c>
       <c r="H52">
-        <v>88300</v>
-      </c>
-      <c r="I52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>24</v>
       </c>
       <c r="B53">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C53" t="s">
         <v>57</v>
@@ -2128,18 +1969,15 @@
         <v>14</v>
       </c>
       <c r="H53">
-        <v>88148</v>
-      </c>
-      <c r="I53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>95148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>25</v>
       </c>
       <c r="B54">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
@@ -2157,18 +1995,15 @@
         <v>15</v>
       </c>
       <c r="H54">
-        <v>147256</v>
-      </c>
-      <c r="I54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>154256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>26</v>
       </c>
       <c r="B55">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C55" t="s">
         <v>60</v>
@@ -2186,18 +2021,15 @@
         <v>15</v>
       </c>
       <c r="H55">
-        <v>101632</v>
-      </c>
-      <c r="I55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>27</v>
       </c>
       <c r="B56">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C56" t="s">
         <v>62</v>
@@ -2215,18 +2047,15 @@
         <v>15</v>
       </c>
       <c r="H56">
-        <v>76000</v>
-      </c>
-      <c r="I56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>82200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>28</v>
       </c>
       <c r="B57">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2244,10 +2073,735 @@
         <v>15</v>
       </c>
       <c r="H57">
+        <v>95917</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2018</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58">
+        <v>2012</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59">
+        <v>2018</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60">
+        <v>2012</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60">
+        <v>90250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>2014</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <v>2020</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63">
+        <v>2020</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64">
+        <v>1984</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>141713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>2018</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>2008</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65">
+        <v>106335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66">
+        <v>2018</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66">
+        <v>1997</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67">
+        <v>2018</v>
+      </c>
+      <c r="C67" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67">
+        <v>2016</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68">
+        <v>2018</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68">
+        <v>2020</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>2018</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>52</v>
+      </c>
+      <c r="F69">
+        <v>2018</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70">
+        <v>2015</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>122222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71">
+        <v>2020</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72">
+        <v>2015</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73">
+        <v>2008</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>129100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74">
+        <v>2015</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>18</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+      <c r="F75">
+        <v>2006</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76">
+        <v>2006</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>101460</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E77" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77">
+        <v>2013</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78">
+        <v>2015</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79">
+        <v>2016</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>23</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>56</v>
+      </c>
+      <c r="E80" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80">
+        <v>2009</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80">
+        <v>88300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>24</v>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81">
+        <v>2008</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81">
+        <v>88148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>59</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82">
+        <v>2008</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>147256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>26</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>2010</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>101632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>27</v>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84">
+        <v>2016</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85" t="s">
+        <v>64</v>
+      </c>
+      <c r="D85" t="s">
+        <v>65</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85">
+        <v>2011</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85">
         <v>88917</v>
-      </c>
-      <c r="I57" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/salary.data.xlsx
+++ b/salary.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyoung20/Dropbox (ASU)/GitHub_repos/CCJfacultysalary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7EBE13-47C7-BD44-A259-9AD8B0039C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CADD5D-258B-E245-83EB-D9FBCDAD7472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33420" windowHeight="19300" xr2:uid="{E77161E0-0D78-EF41-9966-6AFC88018FAF}"/>
   </bookViews>
@@ -180,12 +180,6 @@
     <t>Professor</t>
   </si>
   <si>
-    <t>Associate Professor</t>
-  </si>
-  <si>
-    <t>Assistant Professor</t>
-  </si>
-  <si>
     <t>Rick</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>start.date</t>
+  </si>
+  <si>
+    <t>Associate</t>
+  </si>
+  <si>
+    <t>Assistant</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512D8FD4-FC4B-524B-BB2A-729BD4C8BC53}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="192" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,13 +611,13 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F3">
         <v>2018</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>2018</v>
@@ -981,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F16">
         <v>2015</v>
@@ -1050,7 +1050,7 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F18">
         <v>2015</v>
@@ -1102,7 +1102,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>2006</v>
@@ -1128,7 +1128,7 @@
         <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F21">
         <v>2013</v>
@@ -1174,13 +1174,13 @@
         <v>2020</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F23">
         <v>2016</v>
@@ -1200,13 +1200,13 @@
         <v>2020</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F24">
         <v>2009</v>
@@ -1226,13 +1226,13 @@
         <v>2020</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F25">
         <v>2008</v>
@@ -1255,7 +1255,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
         <v>50</v>
@@ -1278,13 +1278,13 @@
         <v>2020</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F27">
         <v>2010</v>
@@ -1304,13 +1304,13 @@
         <v>2020</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F28">
         <v>2016</v>
@@ -1330,13 +1330,13 @@
         <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F29">
         <v>2011</v>
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F30">
         <v>2012</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F32">
         <v>2012</v>
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F35">
         <v>2020</v>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1622,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F40">
         <v>2020</v>
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F41">
         <v>2018</v>
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1726,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F44">
         <v>2015</v>
@@ -1778,7 +1778,7 @@
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F46">
         <v>2015</v>
@@ -1830,7 +1830,7 @@
         <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F48">
         <v>2006</v>
@@ -1856,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F49">
         <v>2013</v>
@@ -1902,13 +1902,13 @@
         <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F51">
         <v>2016</v>
@@ -1928,13 +1928,13 @@
         <v>2019</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F52">
         <v>2009</v>
@@ -1954,13 +1954,13 @@
         <v>2019</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F53">
         <v>2008</v>
@@ -1983,7 +1983,7 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
         <v>50</v>
@@ -2006,13 +2006,13 @@
         <v>2019</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F55">
         <v>2010</v>
@@ -2032,13 +2032,13 @@
         <v>2019</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F56">
         <v>2016</v>
@@ -2058,13 +2058,13 @@
         <v>2019</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F57">
         <v>2011</v>
@@ -2090,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F58">
         <v>2012</v>
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F59">
         <v>2018</v>
@@ -2125,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F60">
         <v>2012</v>
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F63">
         <v>2020</v>
@@ -2229,7 +2229,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2350,7 +2350,7 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F68">
         <v>2020</v>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F69">
         <v>2018</v>
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2437,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F72">
         <v>2015</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F74">
         <v>2015</v>
@@ -2558,7 +2558,7 @@
         <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F76">
         <v>2006</v>
@@ -2584,7 +2584,7 @@
         <v>47</v>
       </c>
       <c r="E77" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F77">
         <v>2013</v>
@@ -2630,13 +2630,13 @@
         <v>2018</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E79" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F79">
         <v>2016</v>
@@ -2656,13 +2656,13 @@
         <v>2018</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F80">
         <v>2009</v>
@@ -2682,13 +2682,13 @@
         <v>2018</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E81" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F81">
         <v>2008</v>
@@ -2711,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
         <v>50</v>
@@ -2734,13 +2734,13 @@
         <v>2018</v>
       </c>
       <c r="C83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F83">
         <v>2010</v>
@@ -2760,13 +2760,13 @@
         <v>2018</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D84" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E84" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="F84">
         <v>2016</v>
@@ -2786,13 +2786,13 @@
         <v>2018</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F85">
         <v>2011</v>

--- a/salary.data.xlsx
+++ b/salary.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jyoung20/Dropbox (ASU)/GitHub_repos/CCJfacultysalary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CADD5D-258B-E245-83EB-D9FBCDAD7472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21174905-7E2D-1349-A1F2-7B5781B28416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33420" windowHeight="19300" xr2:uid="{E77161E0-0D78-EF41-9966-6AFC88018FAF}"/>
+    <workbookView xWindow="38440" yWindow="0" windowWidth="35080" windowHeight="19280" xr2:uid="{E77161E0-0D78-EF41-9966-6AFC88018FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>Stacia</t>
   </si>
   <si>
-    <t>Stoltzenberg Roosevelt</t>
-  </si>
-  <si>
     <t>Cassia</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>Assistant</t>
+  </si>
+  <si>
+    <t>Stoltzenberg</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512D8FD4-FC4B-524B-BB2A-729BD4C8BC53}">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="192" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="192" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -611,13 +611,13 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2">
         <v>2012</v>
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>2018</v>
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>2012</v>
@@ -712,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -738,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -764,7 +764,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8">
         <v>1984</v>
@@ -816,7 +816,7 @@
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>2008</v>
@@ -842,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10">
         <v>1997</v>
@@ -868,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11">
         <v>2016</v>
@@ -894,7 +894,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -920,7 +920,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>2018</v>
@@ -946,7 +946,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14">
         <v>2015</v>
@@ -972,7 +972,7 @@
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -981,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16">
         <v>2015</v>
@@ -1024,7 +1024,7 @@
         <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17">
         <v>2008</v>
@@ -1047,10 +1047,10 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18">
         <v>2015</v>
@@ -1070,13 +1070,13 @@
         <v>2020</v>
       </c>
       <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>43</v>
-      </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19">
         <v>2006</v>
@@ -1096,13 +1096,13 @@
         <v>2020</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>2006</v>
@@ -1122,13 +1122,13 @@
         <v>2020</v>
       </c>
       <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
-        <v>47</v>
-      </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>2013</v>
@@ -1148,13 +1148,13 @@
         <v>2020</v>
       </c>
       <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22">
         <v>2015</v>
@@ -1174,13 +1174,13 @@
         <v>2020</v>
       </c>
       <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
         <v>51</v>
       </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23">
         <v>2016</v>
@@ -1200,13 +1200,13 @@
         <v>2020</v>
       </c>
       <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24">
         <v>2009</v>
@@ -1226,13 +1226,13 @@
         <v>2020</v>
       </c>
       <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
         <v>55</v>
       </c>
-      <c r="D25" t="s">
-        <v>56</v>
-      </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25">
         <v>2008</v>
@@ -1255,10 +1255,10 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26">
         <v>2008</v>
@@ -1278,13 +1278,13 @@
         <v>2020</v>
       </c>
       <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>2010</v>
@@ -1304,13 +1304,13 @@
         <v>2020</v>
       </c>
       <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
         <v>60</v>
       </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28">
         <v>2016</v>
@@ -1330,13 +1330,13 @@
         <v>2020</v>
       </c>
       <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" t="s">
-        <v>63</v>
-      </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>2011</v>
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>2012</v>
@@ -1388,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
         <v>2018</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>2012</v>
@@ -1440,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>2014</v>
@@ -1466,7 +1466,7 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34">
         <v>2020</v>
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1492,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35">
         <v>2020</v>
@@ -1501,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1518,7 +1518,7 @@
         <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36">
         <v>1984</v>
@@ -1544,7 +1544,7 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>2008</v>
@@ -1570,7 +1570,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38">
         <v>1997</v>
@@ -1596,7 +1596,7 @@
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39">
         <v>2016</v>
@@ -1622,7 +1622,7 @@
         <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>2020</v>
@@ -1631,7 +1631,7 @@
         <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1648,7 +1648,7 @@
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <v>2018</v>
@@ -1674,7 +1674,7 @@
         <v>33</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42">
         <v>2015</v>
@@ -1700,7 +1700,7 @@
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43">
         <v>2020</v>
@@ -1709,7 +1709,7 @@
         <v>15</v>
       </c>
       <c r="H43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1726,7 +1726,7 @@
         <v>37</v>
       </c>
       <c r="E44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <v>2015</v>
@@ -1752,7 +1752,7 @@
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45">
         <v>2008</v>
@@ -1775,10 +1775,10 @@
         <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46">
         <v>2015</v>
@@ -1798,13 +1798,13 @@
         <v>2019</v>
       </c>
       <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="D47" t="s">
-        <v>43</v>
-      </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47">
         <v>2006</v>
@@ -1824,13 +1824,13 @@
         <v>2019</v>
       </c>
       <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
         <v>44</v>
       </c>
-      <c r="D48" t="s">
-        <v>45</v>
-      </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48">
         <v>2006</v>
@@ -1850,13 +1850,13 @@
         <v>2019</v>
       </c>
       <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
-        <v>47</v>
-      </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>2013</v>
@@ -1876,13 +1876,13 @@
         <v>2019</v>
       </c>
       <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
       <c r="E50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F50">
         <v>2015</v>
@@ -1902,13 +1902,13 @@
         <v>2019</v>
       </c>
       <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
         <v>51</v>
       </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F51">
         <v>2016</v>
@@ -1928,13 +1928,13 @@
         <v>2019</v>
       </c>
       <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <v>2009</v>
@@ -1954,13 +1954,13 @@
         <v>2019</v>
       </c>
       <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <v>2008</v>
@@ -1983,10 +1983,10 @@
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54">
         <v>2008</v>
@@ -2006,13 +2006,13 @@
         <v>2019</v>
       </c>
       <c r="C55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" t="s">
-        <v>59</v>
-      </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55">
         <v>2010</v>
@@ -2032,13 +2032,13 @@
         <v>2019</v>
       </c>
       <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" t="s">
         <v>60</v>
       </c>
-      <c r="D56" t="s">
-        <v>61</v>
-      </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56">
         <v>2016</v>
@@ -2058,13 +2058,13 @@
         <v>2019</v>
       </c>
       <c r="C57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" t="s">
-        <v>63</v>
-      </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57">
         <v>2011</v>
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F59">
         <v>2018</v>
@@ -2125,7 +2125,7 @@
         <v>15</v>
       </c>
       <c r="H59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2142,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F60">
         <v>2012</v>
@@ -2168,7 +2168,7 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F61">
         <v>2014</v>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F62">
         <v>2020</v>
@@ -2203,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2220,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F63">
         <v>2020</v>
@@ -2229,7 +2229,7 @@
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F64">
         <v>1984</v>
@@ -2272,7 +2272,7 @@
         <v>23</v>
       </c>
       <c r="E65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F65">
         <v>2008</v>
@@ -2298,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F66">
         <v>1997</v>
@@ -2324,7 +2324,7 @@
         <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F67">
         <v>2016</v>
@@ -2350,7 +2350,7 @@
         <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68">
         <v>2020</v>
@@ -2359,7 +2359,7 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2376,7 +2376,7 @@
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F69">
         <v>2018</v>
@@ -2385,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2402,7 +2402,7 @@
         <v>33</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F70">
         <v>2015</v>
@@ -2428,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F71">
         <v>2020</v>
@@ -2437,7 +2437,7 @@
         <v>15</v>
       </c>
       <c r="H71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2454,7 +2454,7 @@
         <v>37</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F72">
         <v>2015</v>
@@ -2480,7 +2480,7 @@
         <v>39</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F73">
         <v>2008</v>
@@ -2503,10 +2503,10 @@
         <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F74">
         <v>2015</v>
@@ -2526,13 +2526,13 @@
         <v>2018</v>
       </c>
       <c r="C75" t="s">
+        <v>41</v>
+      </c>
+      <c r="D75" t="s">
         <v>42</v>
       </c>
-      <c r="D75" t="s">
-        <v>43</v>
-      </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F75">
         <v>2006</v>
@@ -2552,13 +2552,13 @@
         <v>2018</v>
       </c>
       <c r="C76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
         <v>44</v>
       </c>
-      <c r="D76" t="s">
-        <v>45</v>
-      </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F76">
         <v>2006</v>
@@ -2578,10 +2578,10 @@
         <v>2018</v>
       </c>
       <c r="C77" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" t="s">
         <v>46</v>
-      </c>
-      <c r="D77" t="s">
-        <v>47</v>
       </c>
       <c r="E77" t="s">
         <v>67</v>
@@ -2604,13 +2604,13 @@
         <v>2018</v>
       </c>
       <c r="C78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" t="s">
         <v>48</v>
       </c>
-      <c r="D78" t="s">
-        <v>49</v>
-      </c>
       <c r="E78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F78">
         <v>2015</v>
@@ -2630,13 +2630,13 @@
         <v>2018</v>
       </c>
       <c r="C79" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
         <v>51</v>
       </c>
-      <c r="D79" t="s">
-        <v>52</v>
-      </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F79">
         <v>2016</v>
@@ -2656,13 +2656,13 @@
         <v>2018</v>
       </c>
       <c r="C80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D80" t="s">
         <v>53</v>
       </c>
-      <c r="D80" t="s">
-        <v>54</v>
-      </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80">
         <v>2009</v>
@@ -2682,13 +2682,13 @@
         <v>2018</v>
       </c>
       <c r="C81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" t="s">
         <v>55</v>
       </c>
-      <c r="D81" t="s">
-        <v>56</v>
-      </c>
       <c r="E81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F81">
         <v>2008</v>
@@ -2711,10 +2711,10 @@
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F82">
         <v>2008</v>
@@ -2734,13 +2734,13 @@
         <v>2018</v>
       </c>
       <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" t="s">
         <v>58</v>
       </c>
-      <c r="D83" t="s">
-        <v>59</v>
-      </c>
       <c r="E83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F83">
         <v>2010</v>
@@ -2760,13 +2760,13 @@
         <v>2018</v>
       </c>
       <c r="C84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s">
         <v>60</v>
       </c>
-      <c r="D84" t="s">
-        <v>61</v>
-      </c>
       <c r="E84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F84">
         <v>2016</v>
@@ -2786,13 +2786,13 @@
         <v>2018</v>
       </c>
       <c r="C85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D85" t="s">
         <v>62</v>
       </c>
-      <c r="D85" t="s">
-        <v>63</v>
-      </c>
       <c r="E85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F85">
         <v>2011</v>
